--- a/spliced/walkingToRunning/2023-03-27_19-42-09/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-42-09/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.532178590172217</v>
+        <v>-2.288097732945488</v>
       </c>
       <c r="D2" t="n">
-        <v>-16.01636389682171</v>
+        <v>-4.339917659759537</v>
       </c>
       <c r="E2" t="n">
-        <v>6.974593714663866</v>
+        <v>-3.936509232772027</v>
       </c>
       <c r="F2" t="n">
-        <v>3.856590270996094</v>
+        <v>-0.2191115766763687</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.252686023712158</v>
+        <v>-0.8925584554672241</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6668555736541748</v>
+        <v>0.058589544147253</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-22.63299742497886</v>
+        <v>-3.323771476745605</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.195889523154877</v>
+        <v>-0.8808293342590332</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.14407699986499</v>
+        <v>-3.401906013488769</v>
       </c>
       <c r="F3" t="n">
-        <v>7.994077205657959</v>
+        <v>-0.4737097918987274</v>
       </c>
       <c r="G3" t="n">
-        <v>4.401273250579834</v>
+        <v>-0.3764378130435943</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2966761589050293</v>
+        <v>-0.0346210934221744</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-14.47936531117094</v>
+        <v>-5.066901056390067</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6024172117835604</v>
+        <v>1.504574901179274</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.01582479476932</v>
+        <v>-3.703831045251145</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5494767427444458</v>
+        <v>2.269346237182617</v>
       </c>
       <c r="G4" t="n">
-        <v>2.293114900588989</v>
+        <v>2.84225869178772</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.938781261444092</v>
+        <v>-1.580319762229919</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.626747369766244</v>
+        <v>-4.698070149672659</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.822486783328847</v>
+        <v>-0.4452685556913691</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.710294397253755</v>
+        <v>-8.655812690132544</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.656754016876221</v>
+        <v>2.80038046836853</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.6400907635688782</v>
+        <v>-2.297109603881836</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8974853157997131</v>
+        <v>-0.6647250056266785</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4268563170182262</v>
+        <v>-6.691070581737309</v>
       </c>
       <c r="D6" t="n">
-        <v>-7.612172829477366</v>
+        <v>-6.563599611583482</v>
       </c>
       <c r="E6" t="n">
-        <v>6.265647787796897</v>
+        <v>-8.057312513652606</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.037869453430176</v>
+        <v>-2.487059593200684</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.455584764480591</v>
+        <v>-0.9021458625793456</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.363073825836182</v>
+        <v>2.389388084411621</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.09527274181970302</v>
+        <v>-4.573285604778092</v>
       </c>
       <c r="D7" t="n">
-        <v>5.863329686616582</v>
+        <v>-17.30385228207236</v>
       </c>
       <c r="E7" t="n">
-        <v>12.21953241448658</v>
+        <v>12.64209365844724</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4055328667163849</v>
+        <v>-9.80595874786377</v>
       </c>
       <c r="G7" t="n">
-        <v>9.243432998657228</v>
+        <v>2.084323167800904</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.18677282333374</v>
+        <v>0.3504720032215118</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.31707101119181</v>
+        <v>-1.509485269847658</v>
       </c>
       <c r="D8" t="n">
-        <v>-16.11775568911882</v>
+        <v>-5.039251478094737</v>
       </c>
       <c r="E8" t="n">
-        <v>2.399655392295399</v>
+        <v>6.722280000385433</v>
       </c>
       <c r="F8" t="n">
-        <v>7.240935325622559</v>
+        <v>1.612078070640564</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.536012172698975</v>
+        <v>6.0146164894104</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.926780104637146</v>
+        <v>2.238120555877685</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>23.51702158074626</v>
+        <v>-1.532178590172217</v>
       </c>
       <c r="D9" t="n">
-        <v>-39.05408849214243</v>
+        <v>-16.01636389682171</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4082389630769931</v>
+        <v>6.974593714663866</v>
       </c>
       <c r="F9" t="n">
-        <v>1.342033505439758</v>
+        <v>3.856590270996094</v>
       </c>
       <c r="G9" t="n">
-        <v>2.555702686309814</v>
+        <v>-5.252686023712158</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.59523355960846</v>
+        <v>0.6668555736541748</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.529885241859907</v>
+        <v>-22.63299742497886</v>
       </c>
       <c r="D10" t="n">
-        <v>6.300281524658134</v>
+        <v>-9.195889523154877</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.18308167708546</v>
+        <v>-11.14407699986499</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.227951049804688</v>
+        <v>7.994077205657959</v>
       </c>
       <c r="G10" t="n">
-        <v>2.566887855529785</v>
+        <v>4.401273250579834</v>
       </c>
       <c r="H10" t="n">
-        <v>1.657018899917602</v>
+        <v>0.2966761589050293</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.514081553409033</v>
+        <v>-14.47936531117094</v>
       </c>
       <c r="D11" t="n">
-        <v>-21.8527907321327</v>
+        <v>-0.6024172117835604</v>
       </c>
       <c r="E11" t="n">
-        <v>-10.32276263989904</v>
+        <v>-11.01582479476932</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.749465942382812</v>
+        <v>0.5494767427444458</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.05479621887207</v>
+        <v>2.293114900588989</v>
       </c>
       <c r="H11" t="n">
-        <v>8.297345161437988</v>
+        <v>-1.938781261444092</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38.92504751054884</v>
+        <v>-1.626747369766244</v>
       </c>
       <c r="D12" t="n">
-        <v>-55.46849928404185</v>
+        <v>-8.822486783328847</v>
       </c>
       <c r="E12" t="n">
-        <v>19.13083159296148</v>
+        <v>-5.710294397253755</v>
       </c>
       <c r="F12" t="n">
-        <v>5.375124931335449</v>
+        <v>-5.656754016876221</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.55262565612793</v>
+        <v>-0.6400907635688782</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.865561485290528</v>
+        <v>0.8974853157997131</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.858730956127765</v>
+        <v>0.4268563170182262</v>
       </c>
       <c r="D13" t="n">
-        <v>6.065660225717632</v>
+        <v>-7.612172829477366</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.580752749192068</v>
+        <v>6.265647787796897</v>
       </c>
       <c r="F13" t="n">
-        <v>3.318631649017334</v>
+        <v>-7.037869453430176</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.592221736907959</v>
+        <v>-3.455584764480591</v>
       </c>
       <c r="H13" t="n">
-        <v>2.812298059463501</v>
+        <v>-5.363073825836182</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3.288362201891221</v>
+        <v>0.09527274181970302</v>
       </c>
       <c r="D14" t="n">
-        <v>-18.18445829341276</v>
+        <v>5.863329686616582</v>
       </c>
       <c r="E14" t="n">
-        <v>32.30573925219061</v>
+        <v>12.21953241448658</v>
       </c>
       <c r="F14" t="n">
-        <v>6.787132740020752</v>
+        <v>-0.4055328667163849</v>
       </c>
       <c r="G14" t="n">
-        <v>2.726144790649414</v>
+        <v>9.243432998657228</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.260491132736206</v>
+        <v>-5.18677282333374</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-47.11073684692383</v>
+        <v>8.31707101119181</v>
       </c>
       <c r="D15" t="n">
-        <v>3.437827825546265</v>
+        <v>-16.11775568911882</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.08368492126465</v>
+        <v>2.399655392295399</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.182144641876221</v>
+        <v>7.240935325622559</v>
       </c>
       <c r="G15" t="n">
-        <v>2.194577932357788</v>
+        <v>-3.536012172698975</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.2743056118488312</v>
+        <v>-0.926780104637146</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-15.004909515381</v>
+        <v>23.51702158074626</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.142799942116968</v>
+        <v>-39.05408849214243</v>
       </c>
       <c r="E16" t="n">
-        <v>-13.80460448014111</v>
+        <v>-0.4082389630769931</v>
       </c>
       <c r="F16" t="n">
-        <v>-5.860219478607178</v>
+        <v>1.342033505439758</v>
       </c>
       <c r="G16" t="n">
-        <v>4.652675628662109</v>
+        <v>2.555702686309814</v>
       </c>
       <c r="H16" t="n">
-        <v>1.372593283653259</v>
+        <v>-1.59523355960846</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-7.653207327190201</v>
+        <v>-2.529885241859907</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.902720802708673</v>
+        <v>6.300281524658134</v>
       </c>
       <c r="E17" t="n">
-        <v>-9.241878660101641</v>
+        <v>-23.18308167708546</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.136338233947754</v>
+        <v>-3.227951049804688</v>
       </c>
       <c r="G17" t="n">
-        <v>6.668688774108887</v>
+        <v>2.566887855529785</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.213619470596313</v>
+        <v>1.657018899917602</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-5.410418410050235</v>
+        <v>-4.514081553409033</v>
       </c>
       <c r="D18" t="n">
-        <v>5.482645586917334</v>
+        <v>-21.8527907321327</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0306391966970736</v>
+        <v>-10.32276263989904</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.4337623715400696</v>
+        <v>-7.749465942382812</v>
       </c>
       <c r="G18" t="n">
-        <v>7.815978527069092</v>
+        <v>-4.05479621887207</v>
       </c>
       <c r="H18" t="n">
-        <v>-6.397445678710938</v>
+        <v>8.297345161437988</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-5.049034394715962</v>
+        <v>38.92504751054884</v>
       </c>
       <c r="D19" t="n">
-        <v>8.959014641611201</v>
+        <v>-55.46849928404185</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3938065077129187</v>
+        <v>19.13083159296148</v>
       </c>
       <c r="F19" t="n">
-        <v>7.690476894378662</v>
+        <v>5.375124931335449</v>
       </c>
       <c r="G19" t="n">
-        <v>-9.785386085510254</v>
+        <v>-9.55262565612793</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.533448219299316</v>
+        <v>-2.865561485290528</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.533257911079737</v>
+        <v>-2.858730956127765</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.20816908384616</v>
+        <v>6.065660225717632</v>
       </c>
       <c r="E20" t="n">
-        <v>3.8682978278712</v>
+        <v>-1.580752749192068</v>
       </c>
       <c r="F20" t="n">
-        <v>1.124719500541687</v>
+        <v>3.318631649017334</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.268948078155518</v>
+        <v>-4.592221736907959</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.5054680109024048</v>
+        <v>2.812298059463501</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>3.288362201891221</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-18.18445829341276</v>
+      </c>
+      <c r="E21" t="n">
+        <v>32.30573925219061</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.787132740020752</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.726144790649414</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-2.260491132736206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-47.11073684692383</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.437827825546265</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-20.08368492126465</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-3.182144641876221</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.194577932357788</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.2743056118488312</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-15.004909515381</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.142799942116968</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-13.80460448014111</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-5.860219478607178</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.652675628662109</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.372593283653259</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-7.653207327190201</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-6.902720802708673</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-9.241878660101641</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-3.136338233947754</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.668688774108887</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-2.213619470596313</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.410418410050235</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.482645586917334</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0306391966970736</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.4337623715400696</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.815978527069092</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-6.397445678710938</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.049034394715962</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8.959014641611201</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.3938065077129187</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.690476894378662</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-9.785386085510254</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.533448219299316</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>9.533257911079737</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-10.20816908384616</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.8682978278712</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.124719500541687</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-6.268948078155518</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.5054680109024048</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>18.57404869481136</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>-1.860518957439254</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E28" t="n">
         <v>-7.277912340666091</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F28" t="n">
         <v>0.1537309736013412</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G28" t="n">
         <v>1.004677534103394</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>0.5731122493743896</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-3.77490947121079</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-6.046053083319467</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-15.12075865896126</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-7.232280254364014</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-3.663843870162964</v>
+      </c>
+      <c r="H29" t="n">
+        <v>11.63588333129883</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3.047089124980793</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-31.00068785014912</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2.002202786897417</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.14389431476593</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9.762216567993164</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-6.083192825317383</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7.431886748263759</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-15.14435035304032</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.078887035972246</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.391319036483765</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-6.093712329864502</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.177400588989258</v>
       </c>
     </row>
   </sheetData>
